--- a/data/income_statement/3digits/total/301_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/301_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>301-Building of ships and boats</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>301-Building of ships and boats</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>2355917.5537</v>
@@ -962,70 +868,80 @@
         <v>2068004.59594</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>3297550.26143</v>
+        <v>3396556.77949</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>3565915.2162</v>
+        <v>3566732.146600001</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>2768189.44287</v>
+        <v>3958534.67091</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>4112511.82333</v>
+        <v>4118748.5028</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>6571846.88458</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>6874387.543649999</v>
+        <v>6887156.77946</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>8681790.686729999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>8737309.619299999</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>13091514.741</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>917286.9709300001</v>
+        <v>917286.97093</v>
       </c>
       <c r="D6" s="48" t="n">
         <v>512680.1847099999</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>977183.7894700001</v>
+        <v>977183.7894700002</v>
       </c>
       <c r="F6" s="48" t="n">
         <v>733065.1208399999</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>1507114.70938</v>
+        <v>1531930.1554</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>1424384.99645</v>
+        <v>1425201.92685</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>835736.7094000001</v>
+        <v>1161095.80641</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>1028197.19114</v>
+        <v>1034431.58112</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>2011966.79034</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>1358501.3206</v>
+        <v>1371224.45429</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>2670561.00648</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>2669113.80603</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>3208682.373</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>1405297.8079</v>
@@ -1040,13 +956,13 @@
         <v>1290713.21209</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>1767503.40416</v>
+        <v>1834845.34922</v>
       </c>
       <c r="H7" s="48" t="n">
         <v>2113745.81988</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>1917545.30531</v>
+        <v>2766109.01368</v>
       </c>
       <c r="J7" s="48" t="n">
         <v>3046029.09796</v>
@@ -1055,22 +971,27 @@
         <v>4476292.93366</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>5426125.922339999</v>
+        <v>5426169.346580001</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>5810172.33975</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>5861020.144180001</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>9763962.522</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>33332.77487</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>49629.40200999999</v>
+        <v>49629.40201000001</v>
       </c>
       <c r="E8" s="48" t="n">
         <v>41992.34829</v>
@@ -1079,31 +1000,36 @@
         <v>44226.26301</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>22932.14789</v>
+        <v>29781.27487</v>
       </c>
       <c r="H8" s="48" t="n">
         <v>27784.39987</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>14907.42816</v>
+        <v>31329.85082</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>38285.53423</v>
+        <v>38287.82372000001</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>83587.16058</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>89760.30071</v>
+        <v>89762.97858999998</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>201057.3405</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>207175.66909</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>118869.846</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>7074.065759999999</v>
@@ -1118,16 +1044,16 @@
         <v>10022.49326</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>6562.46884</v>
+        <v>6589.60641</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>8776.13687</v>
+        <v>8776.96737</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>8585.355599999999</v>
+        <v>10797.62027</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>13412.17419</v>
+        <v>13622.1099</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>47076.92294</v>
@@ -1136,13 +1062,18 @@
         <v>54636.17399</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>36698.13469</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>36855.68178</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>67265.95299999999</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>4797.55797</v>
@@ -1157,16 +1088,16 @@
         <v>6254.424639999999</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>2858.18023</v>
+        <v>2885.3178</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>2422.90496</v>
+        <v>2423.73546</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>5083.50275</v>
+        <v>5108.21367</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>5661.2705</v>
+        <v>5871.206210000001</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>36625.89287999999</v>
@@ -1175,16 +1106,21 @@
         <v>36468.48794</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>14038.47862</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>14191.82571</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>29524.467</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>921.7517799999999</v>
+        <v>921.7517800000001</v>
       </c>
       <c r="D11" s="48" t="n">
         <v>752.36267</v>
@@ -1196,7 +1132,7 @@
         <v>2241.07828</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>2406.21998</v>
+        <v>2406.219979999999</v>
       </c>
       <c r="H11" s="48" t="n">
         <v>5081.59684</v>
@@ -1216,11 +1152,16 @@
       <c r="M11" s="48" t="n">
         <v>17847.10435</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>22155.04</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>1354.75601</v>
@@ -1241,7 +1182,7 @@
         <v>1271.63507</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>297.70554</v>
+        <v>2485.25929</v>
       </c>
       <c r="J12" s="48" t="n">
         <v>285.81861</v>
@@ -1253,13 +1194,18 @@
         <v>5925.29797</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>4812.551719999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>4816.751719999999</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>15586.446</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>2348843.48794</v>
@@ -1274,31 +1220,36 @@
         <v>2057982.10268</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>3290987.79259</v>
+        <v>3389967.17308</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>3557139.07933</v>
+        <v>3557955.17923</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>2759604.08727</v>
+        <v>3947737.05064</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>4099099.649139999</v>
+        <v>4105126.3929</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>6524769.96164</v>
+        <v>6524769.961639999</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>6819751.369659999</v>
+        <v>6832520.605469999</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>8645092.55204</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>8700453.937520001</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>13024248.788</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>2030887.07875</v>
@@ -1313,37 +1264,42 @@
         <v>1867738.83934</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>3091358.6905</v>
+        <v>3165389.48593</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>2942900.34571</v>
+        <v>2943408.88266</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>2342250.019640001</v>
+        <v>3391670.80236</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>3418680.97795</v>
+        <v>3423920.04689</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>5651301.33059</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>5258109.142890001</v>
+        <v>5269954.29905</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>7502225.951110001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>7555541.34382</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>10157539.245</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>1131572.49613</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>727001.3998200002</v>
+        <v>727001.3998199999</v>
       </c>
       <c r="E15" s="48" t="n">
         <v>1109862.17883</v>
@@ -1352,31 +1308,36 @@
         <v>1135609.95304</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>2238902.67424</v>
+        <v>2292812.29482</v>
       </c>
       <c r="H15" s="48" t="n">
         <v>2001657.92541</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>1276700.3031</v>
+        <v>2269219.81973</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>2560397.45907</v>
+        <v>2565636.52801</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>4435556.07746</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>3526404.96624</v>
+        <v>3531789.46934</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>5481589.328100001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>5151869.90355</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>6768028.402</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>261510.39145</v>
@@ -1391,13 +1352,13 @@
         <v>194335.46334</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>178247.20877</v>
+        <v>178710.6541</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>188058.84805</v>
+        <v>188516.12286</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>244504.23134</v>
+        <v>250053.74165</v>
       </c>
       <c r="J16" s="48" t="n">
         <v>98258.36833</v>
@@ -1406,16 +1367,21 @@
         <v>299396.32657</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>198180.74878</v>
+        <v>200854.25476</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>493544.42657</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>494417.83271</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>714728.3</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>508814.92821</v>
@@ -1430,31 +1396,36 @@
         <v>531819.47216</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>671027.1791199999</v>
+        <v>690684.9086399999</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>745749.9767999999</v>
+        <v>745801.23894</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>817713.4301700001</v>
+        <v>868888.16025</v>
       </c>
       <c r="J17" s="48" t="n">
         <v>746849.0485500001</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>886967.7826400001</v>
+        <v>886967.7826399999</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>1508933.37273</v>
+        <v>1512720.51981</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>1493763.42286</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1870730.77142</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>2549844.656</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>128989.26296</v>
@@ -1472,10 +1443,10 @@
         <v>3181.62837</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>7433.595450000001</v>
+        <v>7433.59545</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>3332.05503</v>
+        <v>3509.08073</v>
       </c>
       <c r="J18" s="48" t="n">
         <v>13176.102</v>
@@ -1487,13 +1458,18 @@
         <v>24590.05514</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>33328.77358</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>38522.83614</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>124937.887</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>317956.40919</v>
@@ -1508,31 +1484,36 @@
         <v>190243.26334</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>199629.10209</v>
+        <v>224577.68715</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>614238.73362</v>
+        <v>614546.29657</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>417354.06763</v>
+        <v>556066.2482799999</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>680418.6711899999</v>
+        <v>681206.34601</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>873468.6310500001</v>
+        <v>873468.63105</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>1561642.22677</v>
+        <v>1562566.30642</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>1142866.60093</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1144912.5937</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>2866709.543</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>212676.52293</v>
@@ -1547,31 +1528,36 @@
         <v>213060.41079</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>226499.09193</v>
+        <v>244303.82652</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>262429.93302</v>
+        <v>262770.34899</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>241032.58918</v>
+        <v>294829.8437199999</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>335208.66763</v>
+        <v>335625.28615</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>323435.3006300001</v>
+        <v>323435.30063</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>499967.30564</v>
+        <v>503425.09956</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>635939.9731199999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>643095.6106499999</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>764542.532</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>1263.79473</v>
@@ -1595,22 +1581,27 @@
         <v>2362.55146</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>2349.34586</v>
+        <v>2389.40331</v>
       </c>
       <c r="K21" s="48" t="n">
         <v>2111.97965</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>46693.27064</v>
+        <v>46706.44176</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>20108.75155</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>20138.39282</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>30809.21</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>24237.87226</v>
@@ -1625,31 +1616,36 @@
         <v>36947.95947</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>32874.40652</v>
+        <v>40067.42251999999</v>
       </c>
       <c r="H22" s="48" t="n">
         <v>44464.35114</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>33522.71147</v>
+        <v>60955.88888000001</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>53608.80892000001</v>
+        <v>53659.99309</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>72065.48801999999</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>126609.77656</v>
+        <v>126656.36159</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>157572.84287</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>158418.46334</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>209337.2</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>187174.85594</v>
@@ -1664,70 +1660,80 @@
         <v>174408.09117</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>190077.07978</v>
+        <v>200688.79837</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>216224.82784</v>
+        <v>216565.24381</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>205147.32625</v>
+        <v>231511.40338</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>279250.5128499999</v>
+        <v>279575.88975</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>249257.83296</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>326664.25844</v>
+        <v>330062.2962100001</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>458258.3787</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>464538.75449</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>524396.122</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>105279.88626</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>-9603.554729999996</v>
+        <v>-9603.55473</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>-9481.35298</v>
+        <v>-9481.352979999998</v>
       </c>
       <c r="F24" s="47" t="n">
         <v>-22817.14745</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>-26869.98983999999</v>
+        <v>-19726.13937</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>351808.8006</v>
+        <v>351775.94758</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>176321.47845</v>
+        <v>261236.40456</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>345210.00356</v>
+        <v>345581.05986</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>550033.33042</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>1061674.92113</v>
+        <v>1059141.20686</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>506926.62781</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>501816.98305</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>2102167.011</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>249940.84777</v>
@@ -1742,37 +1748,42 @@
         <v>260848.40736</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>486546.33469</v>
+        <v>498088.6982</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>570761.99534</v>
+        <v>570785.67455</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>528611.85529</v>
+        <v>729603.06524</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>628763.3876700001</v>
+        <v>628794.5087</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>932748.0191100001</v>
+        <v>932748.01911</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>3113440.560780001</v>
+        <v>3167787.75029</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>1601445.9014</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>1607186.89099</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>3986088.049</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>3791.71538</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>4100.95663</v>
+        <v>4100.956630000001</v>
       </c>
       <c r="E26" s="48" t="n">
         <v>254.87248</v>
@@ -1781,13 +1792,13 @@
         <v>18901.91248</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>21266.96957</v>
+        <v>21566.96957</v>
       </c>
       <c r="H26" s="48" t="n">
         <v>86393.36590999999</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>25937.78613</v>
+        <v>26362.93613</v>
       </c>
       <c r="J26" s="48" t="n">
         <v>81906.9687</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>10583.0376</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>23916.959</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>1143.6296</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>23320.90162</v>
@@ -1859,31 +1880,36 @@
         <v>24403.20991</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>24849.79211</v>
+        <v>26022.81061</v>
       </c>
       <c r="H28" s="48" t="n">
         <v>34319.38607</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>36933.75459</v>
+        <v>53120.07481000001</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>42385.70396</v>
+        <v>42406.8335</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>52801.44903</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>80171.37988999998</v>
+        <v>80222.14486</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>70792.87647</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>72840.96934000001</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>76651.173</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>131.42541</v>
@@ -1892,7 +1918,7 @@
         <v>82.94458999999999</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>368.8614499999999</v>
+        <v>368.86145</v>
       </c>
       <c r="F29" s="48" t="n">
         <v>33.1005</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>1541.73773</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>574.673</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>455.47842</v>
@@ -1943,7 +1974,7 @@
         <v>3273.85263</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>5867.218559999999</v>
+        <v>6325.20498</v>
       </c>
       <c r="J30" s="48" t="n">
         <v>2435.79488</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>14863.97622</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>14686.7</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>1590.36576</v>
@@ -1982,7 +2018,7 @@
         <v>894.4591800000001</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>4848.23258</v>
+        <v>4878.22478</v>
       </c>
       <c r="J31" s="48" t="n">
         <v>1599.41297</v>
@@ -1991,16 +2027,21 @@
         <v>282.8054</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>110.00036</v>
+        <v>110.00689</v>
       </c>
       <c r="M31" s="48" t="n">
         <v>3865.72046</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>803.244</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>204349.64794</v>
@@ -2015,37 +2056,42 @@
         <v>196138.09006</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>303358.92369</v>
+        <v>313428.2687</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>395548.36668</v>
+        <v>395571.2192</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>369676.0677099999</v>
+        <v>552333.48162</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>375629.03345</v>
+        <v>375630.1268000001</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>736724.40984</v>
+        <v>736724.4098399999</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>2914668.3285</v>
+        <v>2968910.92243</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>1375019.93339</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>1378026.30742</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>3655442.962</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>2.9045</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>953.6237899999999</v>
+        <v>953.62379</v>
       </c>
       <c r="E33" s="48" t="n">
         <v>474.93126</v>
@@ -2054,7 +2100,7 @@
         <v>42.33967</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>87.68179000000001</v>
+        <v>87.68178999999999</v>
       </c>
       <c r="H33" s="48" t="n">
         <v>27.3268</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>15154.77914</v>
@@ -2135,28 +2191,33 @@
         <v>132215.70076</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>49755.19295</v>
+        <v>49756.01963999999</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>85074.35720999999</v>
+        <v>86308.70440999999</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>124559.22783</v>
+        <v>124568.12597</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>69545.12148999999</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>99954.63873999999</v>
+        <v>100008.46282</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>124778.61953</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>125465.14222</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>214012.338</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>210373.2449</v>
@@ -2171,31 +2232,36 @@
         <v>174043.83768</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>630310.6447299999</v>
+        <v>631993.22299</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>461068.4295199999</v>
+        <v>461071.19799</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>518558.60277</v>
+        <v>789677.21678</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>579697.5136899999</v>
+        <v>579701.00225</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>855694.36798</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>3531514.11204</v>
+        <v>3580485.13034</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>1903073.37755</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>1906089.32018</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>4766644.081</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>211.51939</v>
@@ -2210,7 +2276,7 @@
         <v>1340.35424</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>795.4836300000002</v>
+        <v>795.4836299999999</v>
       </c>
       <c r="H37" s="48" t="n">
         <v>269.96012</v>
@@ -2219,25 +2285,30 @@
         <v>577.4491999999999</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>989.75341</v>
+        <v>989.7534099999999</v>
       </c>
       <c r="K37" s="48" t="n">
         <v>331.52815</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>1984.58425</v>
+        <v>1985.47125</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>7307.36015</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>7309.08103</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>11778.974</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>2879.51463</v>
+        <v>2879.514630000001</v>
       </c>
       <c r="D38" s="48" t="n">
         <v>3611.34463</v>
@@ -2258,22 +2329,27 @@
         <v>4250.265489999999</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>8337.200930000001</v>
+        <v>8337.200929999999</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>3996.91606</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>49037.5181</v>
+        <v>49037.51810000001</v>
       </c>
       <c r="M38" s="48" t="n">
         <v>17275.63111</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>16356.121</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>348.19183</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>10407.64511</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>290.243</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>201230.52277</v>
@@ -2327,31 +2408,36 @@
         <v>151925.72652</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>467969.6575800001</v>
+        <v>469652.23584</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>430982.42825</v>
+        <v>430985.19672</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>448449.73808</v>
+        <v>690579.58031</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>511374.4206900001</v>
+        <v>511377.90925</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>806396.8653099999</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>3191082.40376</v>
+        <v>3239976.00467</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>1549990.74439</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>1552917.11826</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>4306647.078</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>66.57318000000001</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>488.87221</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0.65398</v>
@@ -2425,17 +2516,22 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>5636.26912</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>5830.91713</v>
+        <v>5830.917129999999</v>
       </c>
       <c r="E43" s="48" t="n">
         <v>29842.14722</v>
@@ -2450,7 +2546,7 @@
         <v>26718.09391</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>64885.48333</v>
+        <v>93874.25511</v>
       </c>
       <c r="J43" s="48" t="n">
         <v>58584.39885000001</v>
@@ -2459,55 +2555,65 @@
         <v>44967.81611</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>289351.1239899999</v>
+        <v>289427.65438</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>317603.12458</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>317690.97246</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>431571.665</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>103304.62681</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>99014.88355000001</v>
+        <v>99014.88355</v>
       </c>
       <c r="E44" s="47" t="n">
         <v>149519.80407</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>85791.01624</v>
+        <v>85791.01624000001</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>180859.74867</v>
+        <v>182029.77945</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>148549.89987</v>
+        <v>148550.30109</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>156712.37756</v>
+        <v>168170.05115</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>164334.87861</v>
+        <v>164335.80731</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>186168.06255</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>366022.3820599999</v>
+        <v>366668.4455</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>330357.81062</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>334312.85217</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>462820.539</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>93232.76992999999</v>
@@ -2519,34 +2625,39 @@
         <v>129887.42319</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>75270.42499999999</v>
+        <v>75270.425</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>144164.6556</v>
+        <v>145334.68638</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>94283.92808</v>
+        <v>94284.3293</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>116211.39505</v>
+        <v>127669.06864</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>126320.61376</v>
+        <v>126321.54246</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>134771.83819</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>193730.57007</v>
+        <v>194376.63351</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>238124.52106</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>240482.38698</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>443410.444</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>10071.85688</v>
@@ -2567,10 +2678,10 @@
         <v>54265.97179</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>40500.98251000001</v>
+        <v>40500.98250999999</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>38014.26485</v>
+        <v>38014.26485000001</v>
       </c>
       <c r="K46" s="48" t="n">
         <v>51396.22436</v>
@@ -2579,19 +2690,24 @@
         <v>172291.81199</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>92233.28956</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>93830.46519000002</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>19410.095</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>41542.86232</v>
+        <v>41542.86231999999</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>4170.144200000002</v>
+        <v>4170.144200000001</v>
       </c>
       <c r="E47" s="47" t="n">
         <v>-217561.48002</v>
@@ -2600,31 +2716,36 @@
         <v>-21803.59401</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-351494.04855</v>
+        <v>-335660.44361</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>312952.46655</v>
+        <v>312940.1230499999</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>29662.35341</v>
+        <v>32992.20187</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>229940.99893</v>
+        <v>230338.759</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>440918.919</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>277578.98781</v>
+        <v>279775.38131</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-125058.65896</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-131398.29831</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>858790.4399999999</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>149144.37073</v>
@@ -2639,31 +2760,36 @@
         <v>41234.85345</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>49737.34926</v>
+        <v>66063.02013</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>100240.56469</v>
+        <v>100240.57469</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>29786.21647</v>
+        <v>81768.56804000001</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>172848.58818</v>
+        <v>172850.24285</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>161198.66214</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>430214.03386</v>
+        <v>430775.43077</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>288825.53276</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>290288.06089</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>453537.146</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>278.28161</v>
@@ -2687,22 +2813,27 @@
         <v>291.50987</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>730.4190399999999</v>
+        <v>732.07368</v>
       </c>
       <c r="K49" s="48" t="n">
         <v>1102.97406</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>80911.36812</v>
+        <v>81058.43538000001</v>
       </c>
       <c r="M49" s="48" t="n">
         <v>20655.80044</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>326.661</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>148866.08912</v>
@@ -2717,37 +2848,42 @@
         <v>38983.624</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>48959.99601</v>
+        <v>65285.66688000001</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>96815.25960999999</v>
+        <v>96815.26961</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>29494.70659999999</v>
+        <v>81477.05816999999</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>172118.16914</v>
+        <v>172118.16917</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>160095.68808</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>349302.66574</v>
+        <v>349716.99539</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>268169.73232</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>269632.26045</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>453210.485</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>119637.5585</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>68099.76027000001</v>
+        <v>68099.76027</v>
       </c>
       <c r="E51" s="47" t="n">
         <v>196074.92414</v>
@@ -2756,31 +2892,36 @@
         <v>58909.36871</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>52940.88533</v>
+        <v>53066.47001</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>132749.81476</v>
+        <v>132751.81207</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>45970.79975999999</v>
+        <v>47384.96027</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>176550.73123</v>
+        <v>177646.21425</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>75113.83940000001</v>
+        <v>75113.8394</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>365780.78689</v>
+        <v>366669.91917</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>218470.52216</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>221566.93673</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>377415.958</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>5476.81479</v>
@@ -2804,22 +2945,27 @@
         <v>18677.23642</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>36239.41095999999</v>
+        <v>36239.41096</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>20912.04758999999</v>
+        <v>20912.04759</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>13011.461</v>
+        <v>13846.60058</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>21783.35075</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>22021.7558</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>31357.465</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>2717.39509</v>
@@ -2831,10 +2977,10 @@
         <v>2620.02004</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>4752.6834</v>
+        <v>4752.683400000001</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>7395.527389999999</v>
+        <v>7395.61978</v>
       </c>
       <c r="H53" s="48" t="n">
         <v>2633.47495</v>
@@ -2843,28 +2989,33 @@
         <v>3458.11896</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>2341.05304</v>
+        <v>2341.08942</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>3414.86178</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>30479.26732</v>
+        <v>30479.26743</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>15324.34588</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>15331.72008</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>32321.555</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>111443.34862</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>56421.45955000001</v>
+        <v>56421.45955</v>
       </c>
       <c r="E54" s="48" t="n">
         <v>180092.52203</v>
@@ -2873,37 +3024,42 @@
         <v>41117.60925</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>31408.49998</v>
+        <v>31533.99227</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>116332.15147</v>
+        <v>116334.14878</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>23835.44438</v>
+        <v>25249.60489</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>137970.26723</v>
+        <v>139065.71387</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>50786.93003</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>322290.05857</v>
+        <v>322344.05116</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>181362.82553</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>184213.46085</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>313736.938</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>71049.67455000001</v>
+        <v>71049.67455</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>321.3436400000006</v>
+        <v>321.3436399999997</v>
       </c>
       <c r="E55" s="47" t="n">
         <v>-299974.80791</v>
@@ -2912,31 +3068,36 @@
         <v>-39478.10927</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-354697.58462</v>
+        <v>-322663.89349</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>280443.21648</v>
+        <v>280428.8856699999</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>13477.77012</v>
+        <v>67375.80964000001</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>226238.85588</v>
+        <v>225542.7876</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>527003.74174</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>342012.23478</v>
+        <v>343880.89291</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>-54703.64836</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>-62677.17415000001</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>934911.628</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>15404.64901</v>
@@ -2951,13 +3112,13 @@
         <v>20707.67558</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>26002.75515</v>
+        <v>26008.26723</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>42585.72393</v>
+        <v>42605.29527</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>28464.12212</v>
+        <v>37581.79343999999</v>
       </c>
       <c r="J56" s="47" t="n">
         <v>16106.07536</v>
@@ -2966,16 +3127,21 @@
         <v>24878.00526</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>28472.44083</v>
+        <v>28580.9691</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>32931.68035</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>33179.04512</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>93583.982</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>55645.02554</v>
@@ -2990,28 +3156,31 @@
         <v>-60185.78485</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-380700.33977</v>
+        <v>-348672.16072</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>237857.49255</v>
+        <v>237823.5904</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-14986.352</v>
+        <v>29794.0162</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>210132.78052</v>
+        <v>209436.71224</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>502125.73648</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>313539.7939499999</v>
+        <v>315299.9238099999</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-87635.32870999999</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-95856.21927000002</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>841327.6459999999</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>556</v>
@@ -3044,28 +3216,31 @@
         <v>468</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>523</v>
+        <v>541</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>550</v>
+        <v>558</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>572</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>556</v>
+        <v>625</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>671</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>